--- a/docs/odh/shr-core-RelationToLandmark-extension.xlsx
+++ b/docs/odh/shr-core-RelationToLandmark-extension.xlsx
@@ -137,7 +137,17 @@
     <t>RelationToLandmark</t>
   </si>
   <si>
-    <t>An anatomical landmark that helps determine a body location.</t>
+    <t>The relationship between a landmark that helps determine a body location and the body location itself. The location relative to a landmark is specified by:
+* Specifying the location and type of landmark using a body site code and optional laterality/orientation,
+* Specifying the direction from the landmark to the body location, and
+* Specifying the distance from the landmark to the body location.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>1</t>
@@ -190,41 +200,41 @@
     <t>landmarktype</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LandmarkType-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkType-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The type of feature that constitutes the landmark, for example, particularly if the landmark is an acquired body structure or physical object.</t>
+    <t>The type of feature that constitutes the landmark, particularly if the landmark is an acquired body structure or physical object.</t>
   </si>
   <si>
     <t>landmarklocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LandmarkLocation-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkLocation-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The body location of the landmark.</t>
+    <t>The body location of the landmark, specified by a location code and optional laterality and orientation.</t>
   </si>
   <si>
     <t>landmarktobodylocationdirection</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LandmarkToBodyLocationDirection-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkToBodyLocationDirection-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The direction from the landmark to the body location of interest.</t>
+    <t>The direction from the landmark to the body location of interest, given as a clockface direction or anatomical direction.</t>
   </si>
   <si>
     <t>landmarktobodylocationdistance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LandmarkToBodyLocationDistance-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkToBodyLocationDistance-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>How far the anatomical location of interest is from the given landmark</t>
+    <t>How far the body location of interest is from the given landmark.</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -240,7 +250,7 @@
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelationToLandmark-extension"/&gt;</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -402,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/docs/odh/shr-core-RelationToLandmark-extension.xlsx
+++ b/docs/odh/shr-core-RelationToLandmark-extension.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="81">
   <si>
     <t>Path</t>
   </si>
@@ -150,28 +150,28 @@
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {children().count() &gt; id.count()}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -180,17 +180,30 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -200,7 +213,7 @@
     <t>landmarktype</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkType-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkType-extension}
 </t>
   </si>
   <si>
@@ -210,7 +223,7 @@
     <t>landmarklocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkLocation-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkLocation-extension}
 </t>
   </si>
   <si>
@@ -220,7 +233,7 @@
     <t>landmarktobodylocationdirection</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkToBodyLocationDirection-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkToBodyLocationDirection-extension}
 </t>
   </si>
   <si>
@@ -230,7 +243,7 @@
     <t>landmarktobodylocationdistance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkToBodyLocationDistance-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkToBodyLocationDistance-extension}
 </t>
   </si>
   <si>
@@ -240,7 +253,7 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -250,20 +263,23 @@
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelationToLandmark-extension"/&gt;</t>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelationToLandmark-extension</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>base64Binary {[]} {[]}
-boolean {[]} {[]}code {[]} {[]}date {[]} {[]}dateTime {[]} {[]}decimal {[]} {[]}id {[]} {[]}instant {[]} {[]}integer {[]} {[]}markdown {[]} {[]}oid {[]} {[]}positiveInt {[]} {[]}string {[]} {[]}time {[]} {[]}unsignedInt {[]} {[]}uri {[]} {[]}Address {[]} {[]}Age {[]} {[]}Annotation {[]} {[]}Attachment {[]} {[]}CodeableConcept {[]} {[]}Coding {[]} {[]}ContactPoint {[]} {[]}Count {[]} {[]}Distance {[]} {[]}Duration {[]} {[]}HumanName {[]} {[]}Identifier {[]} {[]}Money {[]} {[]}Period {[]} {[]}Quantity {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}Reference {[]} {[]}SampledData {[]} {[]}Signature {[]} {[]}Timing {[]} {[]}Meta {[]} {[]}</t>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
   </si>
   <si>
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](extensibility.html) for a list).</t>
   </si>
 </sst>
 </file>
@@ -316,67 +332,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -423,7 +439,7 @@
   <cols>
     <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="31.06640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
@@ -431,7 +447,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="36.0859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="43.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -448,10 +464,10 @@
     <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -653,18 +669,18 @@
         <v>37</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AH2" t="s" s="2">
+      <c r="AI2" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>43</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -675,7 +691,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>36</v>
@@ -750,7 +766,7 @@
         <v>37</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>36</v>
@@ -765,7 +781,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -784,15 +800,17 @@
         <v>36</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>36</v>
@@ -829,17 +847,19 @@
         <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AC4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>37</v>
@@ -859,7 +879,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>36</v>
@@ -869,7 +889,7 @@
         <v>37</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>36</v>
@@ -881,11 +901,11 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -936,13 +956,13 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>36</v>
@@ -956,7 +976,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>36</v>
@@ -966,7 +986,7 @@
         <v>37</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>36</v>
@@ -978,11 +998,11 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1033,13 +1053,13 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>36</v>
@@ -1053,7 +1073,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>36</v>
@@ -1063,7 +1083,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>36</v>
@@ -1075,11 +1095,11 @@
         <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1130,13 +1150,13 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>36</v>
@@ -1150,7 +1170,7 @@
         <v>49</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>36</v>
@@ -1160,7 +1180,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>36</v>
@@ -1172,11 +1192,11 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1227,13 +1247,13 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>36</v>
@@ -1244,7 +1264,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1252,10 +1272,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>36</v>
@@ -1267,70 +1287,72 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="R9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="AF9" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>36</v>
@@ -1341,7 +1363,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1364,13 +1386,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1421,13 +1443,13 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>36</v>
